--- a/network1_node_input.xlsx
+++ b/network1_node_input.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
